--- a/streamlit/dados_brutos/homegate_comprar_geneve_20240815.xlsx
+++ b/streamlit/dados_brutos/homegate_comprar_geneve_20240815.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:54</t>
+          <t>2024-08-15 23:22:26</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:55</t>
+          <t>2024-08-15 23:22:27</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:56</t>
+          <t>2024-08-15 23:22:28</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:57</t>
+          <t>2024-08-15 23:22:29</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:58</t>
+          <t>2024-08-15 23:22:30</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:59</t>
+          <t>2024-08-15 23:22:31</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:00</t>
+          <t>2024-08-15 23:22:32</t>
         </is>
       </c>
     </row>
@@ -762,162 +762,162 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:01</t>
+          <t>2024-08-15 23:22:33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LOFT MODERNE ET SPACIEUX</t>
+          <t>Vieille Ville - Rue des Granges</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHF 990,000.–</t>
+          <t>CHF 4,575,000.–</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>109m²</t>
+          <t>220m²</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1217 Meyrin</t>
+          <t>Rue des Granges, 1204 Genève</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001337579</t>
+          <t>https://www.homegate.ch/buy/4001380333</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:02</t>
+          <t>2024-08-15 23:22:35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vieille Ville - Rue des Granges</t>
+          <t>Bel appartement traversant Champel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHF 4,575,000.–</t>
+          <t>CHF 2,950,000.–</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>220m²</t>
+          <t>179m²</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rue des Granges, 1204 Genève</t>
+          <t>Avenue de Champel 55, 1206 Genève</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001380333</t>
+          <t>https://www.homegate.ch/buy/4001364526</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:03</t>
+          <t>2024-08-15 23:22:36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bel appartement traversant Champel</t>
+          <t>Magnifique appartement neuf en rez-de-jardin au centre de Vésenaz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHF 2,950,000.–</t>
+          <t>CHF 3,190,000.–</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>179m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Avenue de Champel 55, 1206 Genève</t>
+          <t>6 Route de Vandoeuvres, 1222 Vésenaz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001364526</t>
+          <t>https://www.homegate.ch/buy/4001358835</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:05</t>
+          <t>2024-08-15 23:22:37</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Magnifique appartement neuf en rez-de-jardin au centre de Vésenaz</t>
+          <t>Au coeur d'un quartier résidentiel!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHF 3,190,000.–</t>
+          <t>Price on request</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200m²</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6 Route de Vandoeuvres, 1222 Vésenaz</t>
+          <t>1223 Cologny</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001358835</t>
+          <t>https://www.homegate.ch/buy/4001356168</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:06</t>
+          <t>2024-08-15 23:22:38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Au coeur d'un quartier résidentiel!</t>
+          <t>Prenez de la hauteur!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -937,276 +937,276 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1223 Cologny</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001356168</t>
+          <t>https://www.homegate.ch/buy/4001356163</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:07</t>
+          <t>2024-08-15 23:22:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Prenez de la hauteur!</t>
+          <t>Exclusivité : appartement lumineux - dernier étage - quiétude et verdure</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Price on request</t>
+          <t>CHF 1,350,000.–</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>200m²</t>
+          <t>118m²</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Chemin du Daru, 1228 Plan-les-Ouates</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001356163</t>
+          <t>https://www.homegate.ch/buy/4001317683</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:08</t>
+          <t>2024-08-15 23:22:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Exclusivité : appartement lumineux - dernier étage - quiétude et verdure</t>
+          <t>Appartement - Résidence située au bord du Lac - Lovée dans un vaste parc privatif de 1.4 hectares</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHF 1,350,000.–</t>
+          <t>CHF 1,790,000.–</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>118m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chemin du Daru, 1228 Plan-les-Ouates</t>
+          <t>1290 Versoix</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001317683</t>
+          <t>https://www.homegate.ch/buy/4001315558</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:09</t>
+          <t>2024-08-15 23:22:41</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Appartement - Résidence située au bord du Lac - Lovée dans un vaste parc privatif de 1.4 hectares</t>
+          <t>Studio à Vendre Champel/Florissant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHF 1,790,000.–</t>
+          <t>CHF 640,000.–</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>33m²</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1290 Versoix</t>
+          <t>Chemin Rieu, 1208 Genève</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001315558</t>
+          <t>https://www.homegate.ch/buy/4001270528</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:10</t>
+          <t>2024-08-15 23:22:42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Studio à Vendre Champel/Florissant</t>
+          <t>Bel appartement en duplex avec balcon et véranda</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHF 640,000.–</t>
+          <t>CHF 1,250,000.–</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33m²</t>
+          <t>130m²</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chemin Rieu, 1208 Genève</t>
+          <t>Route d'Ambilly 36, 1226 Thônex</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001270528</t>
+          <t>https://www.homegate.ch/buy/4001129344</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:11</t>
+          <t>2024-08-15 23:22:43</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bel appartement en duplex avec balcon et véranda</t>
+          <t>Un magnifique duplex en attique</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHF 1,250,000.–</t>
+          <t>CHF 7,900,000.–</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>130m²</t>
+          <t>521m²</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Route d'Ambilly 36, 1226 Thônex</t>
+          <t>Rue de la Cloche 6, 1201 Genève</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001129344</t>
+          <t>https://www.homegate.ch/buy/3002187300</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:12</t>
+          <t>2024-08-15 23:22:44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Un magnifique duplex en attique</t>
+          <t>Tour Invictus : Appartement de 3.5 pièces à Fribourg avec vue panoramique sur les Préalpes !</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHF 7,900,000.–</t>
+          <t>CHF 799,000.–</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>521m²</t>
+          <t>72m²</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rue de la Cloche 6, 1201 Genève</t>
+          <t>Route de la Glâne 19, 1202 Genève</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/3002187300</t>
+          <t>https://www.homegate.ch/buy/4001319841</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:13</t>
+          <t>2024-08-15 23:22:45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tour Invictus : Appartement de 3.5 pièces à Fribourg avec vue panoramique sur les Préalpes !</t>
+          <t>Entre le parc Bertrand et les HUG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHF 799,000.–</t>
+          <t>CHF 1,670,000.–</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72m²</t>
+          <t>108m²</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Route de la Glâne 19, 1202 Genève</t>
+          <t>Genève, 1206 Genève</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001319841</t>
+          <t>https://www.homegate.ch/buy/4001374783</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:14</t>
+          <t>2024-08-15 23:22:46</t>
         </is>
       </c>
     </row>
